--- a/83 Demás trabajos.xlsx
+++ b/83 Demás trabajos.xlsx
@@ -25,14 +25,13 @@
     <t>INVEMAR - Calidad Ambiental Marina</t>
   </si>
   <si>
-    <t>Oceanografia Operacional</t>
+    <t xml:space="preserve">GRUPO DE INVESTIGACIÓN EN INGENIERÍA DE RECURSOS HÍDRICOS Y  SUELOS </t>
   </si>
   <si>
     <t>6.- Demás trabajos : Informe técnico del MONITOREO DE CALIDAD DE AGUAS, SEDIMENTOS, FAUNA ASOCIADA A MANGLAR Y BENTOS EN EL ÁREA DE INFLUENCIA DEL DRAGADO EN EL PUERTO DE BUENAVENTURA  Colombia, 2008,  Idioma: Español, Medio de divulgación: Papel  Autores: JULIAN MAURICIO BETANCOURT PORTELA, JOSE GREGORI SANCHEZ DIAZGRANADOS, BETTY CECILIA CADAVID</t>
   </si>
   <si>
-    <t>123.- Demás trabajos : Institución Referente en el Monitoreo de Agua de Lastre  Colombia, 2013,  Idioma: Español, Medio de divulgación: Internet  Autores: LISETH JOHANA ARREGOCES SILVA 
- 124.- Demás trabajos : Investigador de Institución Referente en el monitoreo de Agua de Lastre visita al CIOH  Colombia, 2013,  Idioma: Español, Medio de divulgación: Internet  Autores: KAREN LOPEZ SUAREZ</t>
+    <t>16.- Demás trabajos : Validación del protocolo para la caracterización de los ciclos de agua y carbono en ecosistemas de alta montaña y diseño, instalación y puesta en operación de la red de monitoreo para determinar los impactos del cambio climático en dichos ciclos.  Colombia, 2007,  Idioma: Español, Medio de divulgación: Papel  Autores: ALDEMAR REYES TRUJILLO</t>
   </si>
 </sst>
 </file>
